--- a/results/forward_testing.xlsx
+++ b/results/forward_testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\Platypus\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB210B8-70B8-403A-8D5F-F39AEA69851B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ADB3C3-A875-417F-9A4E-7B20055C919C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="V2" sqref="V2:V3"/>
     </sheetView>
   </sheetViews>
